--- a/Docs/Proposal/기획서 업데이트 이력.xlsx
+++ b/Docs/Proposal/기획서 업데이트 이력.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zereo\Desktop\Project\ContentsIT_Capston_Design\docs\proposal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zereo\Desktop\Project\ContentsIT_Capston_Design\Docs\Proposal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D04FAC-65F8-4BC7-945D-3C318C3C3F7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CBA12B-B44C-4F0A-AA5E-D6A5AA8FDB46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11490" yWindow="0" windowWidth="17265" windowHeight="14685" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10035" yWindow="480" windowWidth="18555" windowHeight="14685" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시스템" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
   <si>
     <t>버전</t>
   </si>
@@ -350,6 +350,39 @@
   </si>
   <si>
     <t>이지원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4.1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.11.12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이지원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스크립트 리스트의 스크립트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 당 스탠딩&amp;배경 지정.</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -456,7 +489,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -483,6 +516,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1264,7 +1300,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1377,11 +1413,21 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="A7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>

--- a/Docs/Proposal/기획서 업데이트 이력.xlsx
+++ b/Docs/Proposal/기획서 업데이트 이력.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zereo\Desktop\Project\ContentsIT_Capston_Design\Docs\Proposal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CBA12B-B44C-4F0A-AA5E-D6A5AA8FDB46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D3D204-9FA5-4AAB-9AE7-11AA507D2CA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10035" yWindow="480" windowWidth="18555" windowHeight="14685" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10245" yWindow="75" windowWidth="18555" windowHeight="14685" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시스템" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
   <si>
     <t>버전</t>
   </si>
@@ -382,6 +382,39 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> 당 스탠딩&amp;배경 지정.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.11.22</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이지원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배경</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>, 캐릭터 애니메이션, 미션(규칙) 리스트 내용 추가</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1299,8 +1332,8 @@
   </sheetPr>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1430,11 +1463,21 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>

--- a/Docs/Proposal/기획서 업데이트 이력.xlsx
+++ b/Docs/Proposal/기획서 업데이트 이력.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zereo\Desktop\Project\ContentsIT_Capston_Design\Docs\Proposal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D3D204-9FA5-4AAB-9AE7-11AA507D2CA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E0498E-2ED3-4B12-B5F9-4316F4076989}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="75" windowWidth="18555" windowHeight="14685" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10245" yWindow="0" windowWidth="18555" windowHeight="14685" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시스템" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
   <si>
     <t>버전</t>
   </si>
@@ -416,6 +416,64 @@
       </rPr>
       <t>, 캐릭터 애니메이션, 미션(규칙) 리스트 내용 추가</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>음악</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리스트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에셋 이름 추가</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.12.01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이지원</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1332,8 +1390,8 @@
   </sheetPr>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1480,11 +1538,21 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="A9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>

--- a/Docs/Proposal/기획서 업데이트 이력.xlsx
+++ b/Docs/Proposal/기획서 업데이트 이력.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zereo\Desktop\Project\ContentsIT_Capston_Design\Docs\Proposal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zereo\Desktop\Project\ContentsIT_Capston_Design\docs\Proposal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E0498E-2ED3-4B12-B5F9-4316F4076989}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7371B73B-532E-472A-88F7-39BB673D91C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="18555" windowHeight="14685" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18555" windowHeight="14685" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시스템" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
   <si>
     <t>버전</t>
   </si>
@@ -465,6 +465,33 @@
         <charset val="129"/>
       </rPr>
       <t>에셋 이름 추가</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.12.01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이지원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>음악</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 리스트 수정</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1391,7 +1418,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1555,11 +1582,21 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="A10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
